--- a/Luban/MiniTemplate/Datas/__beans__.xlsx
+++ b/Luban/MiniTemplate/Datas/__beans__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace2\luban_examples\MiniTemplate\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\ugit\XHFrameworkSkill\Luban\MiniTemplate\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52892A95-BBDD-42B6-A9C8-E869A5FA9CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A785257-BBD3-4886-86DE-C508B1FB9118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -92,6 +92,26 @@
   </si>
   <si>
     <t>字段变体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NodeJson</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nodeType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -467,22 +487,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD18"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="4" width="20.625" customWidth="1"/>
+    <col min="2" max="4" width="20.58203125" customWidth="1"/>
     <col min="5" max="6" width="12.25" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
     <col min="10" max="12" width="13.5" customWidth="1"/>
-    <col min="13" max="13" width="10.375" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +540,7 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,7 +566,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -573,6 +593,25 @@
       </c>
       <c r="P3" s="2" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/MiniTemplate/Datas/__beans__.xlsx
+++ b/Luban/MiniTemplate/Datas/__beans__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\ugit\XHFrameworkSkill\Luban\MiniTemplate\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A785257-BBD3-4886-86DE-C508B1FB9118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A047C20-A158-4EF4-98C0-D15770DBE089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6400" yWindow="1750" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
